--- a/results/170414-Z07-1705-2017_Paganello.xlsx
+++ b/results/170414-Z07-1705-2017_Paganello.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E316B2B7-AF33-4869-B231-8C4FC0E4187D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE99A8-9DC0-485D-ABED-B79FBA547CB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t>Rimini, Italy</t>
   </si>
   <si>
-    <t>Giulio</t>
-  </si>
-  <si>
     <t>Ranieri, Maurizio</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>14.4.2017-16.4.2017</t>
+  </si>
+  <si>
+    <t>Raboni, Giulio</t>
   </si>
 </sst>
 </file>
@@ -1690,138 +1690,91 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1830,62 +1783,109 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2368,7 +2368,7 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:L4"/>
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2396,14 +2396,14 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="163"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2414,14 +2414,14 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="158" t="s">
+      <c r="G3" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2432,14 +2432,14 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
+      <c r="G4" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="142"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2450,14 +2450,14 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="158" t="s">
+      <c r="G5" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="127"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2468,14 +2468,14 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="167">
+      <c r="G6" s="143">
         <v>30</v>
       </c>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="169"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="145"/>
       <c r="M6" s="1"/>
       <c r="Q6" s="86"/>
       <c r="R6" s="86"/>
@@ -2488,14 +2488,14 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="152">
+      <c r="G7" s="146">
         <v>1</v>
       </c>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="154"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="127"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2506,12 +2506,12 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2522,12 +2522,12 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="154"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,7 @@
       <c r="J10" s="101"/>
       <c r="K10" s="102"/>
       <c r="L10" s="103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -2556,14 +2556,14 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="158">
+      <c r="G11" s="128">
         <v>1705</v>
       </c>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="127"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2574,28 +2574,28 @@
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
-      <c r="G12" s="170">
+      <c r="G12" s="129">
         <v>1905</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="172"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="131"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="174"/>
-      <c r="L13" s="175"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="134"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -2605,7 +2605,7 @@
     </row>
     <row r="15" spans="1:18" s="9" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="77" t="s">
@@ -3098,7 +3098,7 @@
     </row>
     <row r="29" spans="1:16" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="84" t="s">
@@ -3120,92 +3120,92 @@
       <c r="P29" s="118"/>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D30" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="126" t="s">
+      <c r="E30" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="129" t="s">
+      <c r="F30" s="167" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="61"/>
-      <c r="H30" s="132" t="s">
+      <c r="H30" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126" t="s">
+      <c r="I30" s="150"/>
+      <c r="J30" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="142" t="s">
+      <c r="K30" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="155" t="s">
         <v>18</v>
       </c>
       <c r="M30" s="10"/>
-      <c r="N30" s="143" t="s">
+      <c r="N30" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="O30" s="144"/>
-      <c r="P30" s="145"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="160"/>
     </row>
     <row r="31" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="133"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="130"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="156"/>
       <c r="G31" s="61"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="130"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="156"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="148"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="163"/>
     </row>
     <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="133"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="130"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="156"/>
       <c r="G32" s="61"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="130"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="156"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="148"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="163"/>
     </row>
     <row r="33" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="134"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="131"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="157"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="131"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="157"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="149"/>
-      <c r="O33" s="150"/>
-      <c r="P33" s="151"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="166"/>
     </row>
     <row r="34" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="72"/>
@@ -3793,7 +3793,7 @@
     <row r="51" spans="1:16" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60"/>
       <c r="B51" s="83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="76"/>
       <c r="D51" s="84" t="s">
@@ -4092,7 +4092,7 @@
       <c r="A60" s="60"/>
       <c r="B60" s="123"/>
       <c r="C60" s="81" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D60" s="35" t="s">
         <v>29</v>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O60" s="114">
         <v>77.5</v>
@@ -4360,7 +4360,7 @@
       <c r="A67" s="60"/>
       <c r="B67" s="124"/>
       <c r="C67" s="104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="105" t="s">
         <v>29</v>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O67" s="114">
         <v>55</v>
@@ -4434,29 +4434,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="N30:P33"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B68"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="H30:H33"/>
@@ -4467,11 +4449,29 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="D30:D33"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="N30:P33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G13:L13"/>
   </mergeCells>
   <conditionalFormatting sqref="N18:P27 N35:P49 N54:P68">
     <cfRule type="expression" dxfId="0" priority="4">
